--- a/tiktok_search_cat.xlsx
+++ b/tiktok_search_cat.xlsx
@@ -512,22 +512,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@theparsnipdiaries/video/7544092493378342166</t>
+          <t>https://www.tiktok.com/@wildmane_mainecoons/video/7544160476519779615</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>theparsnipdiaries</t>
+          <t>wildmane_mainecoons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7544092493378342166</t>
+          <t>7544160476519779615</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Video by @theparsnipdiaries</t>
+          <t>Video by @wildmane_mainecoons</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -539,22 +539,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@wildmane_mainecoons/video/7544160476519779615</t>
+          <t>https://www.tiktok.com/@cute.catsxxx/video/7543767375758265655</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>wildmane_mainecoons</t>
+          <t>cute.catsxxx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7544160476519779615</t>
+          <t>7543767375758265655</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Video by @wildmane_mainecoons</t>
+          <t>Video by @cute.catsxxx</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,22 +566,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@funnypets.oftiktok/video/7543779397891820831</t>
+          <t>https://www.tiktok.com/@catutucom/video/7543337508155804935</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>funnypets.oftiktok</t>
+          <t>catutucom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7543779397891820831</t>
+          <t>7543337508155804935</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Video by @funnypets.oftiktok</t>
+          <t>Video by @catutucom</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -593,22 +593,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@jfxgw/video/7542936311838100791</t>
+          <t>https://www.tiktok.com/@icecreamtina0/video/7543814939123666196</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jfxgw</t>
+          <t>icecreamtina0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7542936311838100791</t>
+          <t>7543814939123666196</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Video by @jfxgw</t>
+          <t>Video by @icecreamtina0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
